--- a/dataset_filtrato_v2.xlsx
+++ b/dataset_filtrato_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RConti\PycharmProjects\pythonProject\PROGETTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6978CB-98B8-42A1-A3F6-06ECE5326F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B95F74E-7A60-4F86-A84E-9C09A65088CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Territorio</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Valle d'Aosta / Vallée d'Aoste</t>
+  </si>
+  <si>
+    <t>Veneto</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1047,6 +1050,32 @@
         <v>110916</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23">
+        <v>56437283</v>
+      </c>
+      <c r="D23">
+        <v>29907</v>
+      </c>
+      <c r="E23">
+        <v>69026517</v>
+      </c>
+      <c r="F23">
+        <v>294762</v>
+      </c>
+      <c r="G23">
+        <v>429550</v>
+      </c>
+      <c r="H23">
+        <v>765245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
